--- a/lib/objects.xlsx
+++ b/lib/objects.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/greg/Desktop/education_hack/education_hack/lib/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/greg/Desktop/education_hack/education_hack_api/lib/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10080" yWindow="460" windowWidth="17320" windowHeight="16100" tabRatio="500"/>
+    <workbookView xWindow="7100" yWindow="2800" windowWidth="19340" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="53">
   <si>
     <t>object_local_name</t>
   </si>
@@ -89,26 +89,110 @@
     <t>Accessories</t>
   </si>
   <si>
-    <t>Spanish</t>
-  </si>
-  <si>
-    <t>galleta salada</t>
-  </si>
-  <si>
-    <t>gafas de sol</t>
-  </si>
-  <si>
-    <t>telefono</t>
-  </si>
-  <si>
-    <t>boligrafo</t>
+    <t>apples.jpg</t>
+  </si>
+  <si>
+    <t>bag.jpg</t>
+  </si>
+  <si>
+    <t>balloons.jpg</t>
+  </si>
+  <si>
+    <t>bananas.jpg</t>
+  </si>
+  <si>
+    <t>basket.jpg</t>
+  </si>
+  <si>
+    <t>bottle.jpg</t>
+  </si>
+  <si>
+    <t>chair.jpg</t>
+  </si>
+  <si>
+    <t>door.jpg</t>
+  </si>
+  <si>
+    <t>headphones.jpg</t>
+  </si>
+  <si>
+    <t>man.jpg</t>
+  </si>
+  <si>
+    <t>table.jpg</t>
+  </si>
+  <si>
+    <t>watch.jpg</t>
+  </si>
+  <si>
+    <t>ladder.jpg</t>
+  </si>
+  <si>
+    <t>dessert.jpg</t>
+  </si>
+  <si>
+    <t>German</t>
+  </si>
+  <si>
+    <t>Apfel</t>
+  </si>
+  <si>
+    <t>Sonnenbrille</t>
+  </si>
+  <si>
+    <t>Brezel</t>
+  </si>
+  <si>
+    <t>Telefon</t>
+  </si>
+  <si>
+    <t>Stift</t>
+  </si>
+  <si>
+    <t>Tasche</t>
+  </si>
+  <si>
+    <t>Ballon</t>
+  </si>
+  <si>
+    <t>Banane</t>
+  </si>
+  <si>
+    <t>Korb</t>
+  </si>
+  <si>
+    <t>Flasche</t>
+  </si>
+  <si>
+    <t>Sessel</t>
+  </si>
+  <si>
+    <t>Dessert</t>
+  </si>
+  <si>
+    <t>Tur</t>
+  </si>
+  <si>
+    <t>Kopfhorer</t>
+  </si>
+  <si>
+    <t>Leiter</t>
+  </si>
+  <si>
+    <t>Mann</t>
+  </si>
+  <si>
+    <t>Tabelle</t>
+  </si>
+  <si>
+    <t>Uhr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -117,6 +201,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF222222"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212121"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
@@ -142,9 +249,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,15 +539,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
     <col min="4" max="4" width="22.1640625" customWidth="1"/>
@@ -469,10 +586,10 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -484,18 +601,18 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>22</v>
+      <c r="C3" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -515,10 +632,10 @@
         <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -538,10 +655,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -553,7 +670,337 @@
         <v>4.5</v>
       </c>
     </row>
+    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="17" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="21" x14ac:dyDescent="0.3">
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+      <c r="C21" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>